--- a/2019培养方案/学院文件/2019版培养方案课号分配表 .xlsx
+++ b/2019培养方案/学院文件/2019版培养方案课号分配表 .xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chaolimeng/Downloads/TrainingProgram/2019培养方案/学院文件/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E62E278-AEB9-F945-824E-E04176439FC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9372" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="1700" windowWidth="23040" windowHeight="9380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>2019版培养方案课号分配</t>
   </si>
@@ -233,19 +239,21 @@
   </si>
   <si>
     <t>19197**</t>
+  </si>
+  <si>
+    <t>中学信息技术教学设计</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>中学信息技术课程标准与教材研究</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -288,7 +296,7 @@
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -303,158 +311,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -473,194 +344,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -710,394 +395,122 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_网络技术学院2011教学计划总表" xfId="1"/>
-    <cellStyle name="货币[0]" xfId="2" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="货币" xfId="5" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
-    <cellStyle name="差" xfId="8" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
+    <cellStyle name="常规_网络技术学院2011教学计划总表" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <mruColors>
-      <color rgb="00FF0000"/>
+      <color rgb="FFFF0000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1419,633 +832,649 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="44.4" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.8" spans="1:4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="26">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>19</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" ht="37" customHeight="1" spans="1:4">
-      <c r="A4" s="6" t="s">
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" ht="37" customHeight="1">
+      <c r="A4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>1919001</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <v>1919002</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="9"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="10">
         <v>1919101</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="13"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="10">
         <v>1919102</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="13"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="10">
         <v>1919103</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="10">
         <v>1919104</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="13"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="10">
         <v>1919105</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="13"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="10">
         <v>1919106</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="13"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="10">
         <v>1919107</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="13"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="10">
         <v>1919108</v>
       </c>
-      <c r="D17" s="9"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="13"/>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="10">
         <v>1919109</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="13"/>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="10">
         <v>1919110</v>
       </c>
-      <c r="D19" s="9"/>
+      <c r="D19" s="7"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="13"/>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="10">
         <v>1919111</v>
       </c>
-      <c r="D20" s="9"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="13"/>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="10">
         <v>1919112</v>
       </c>
-      <c r="D21" s="9"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13"/>
-      <c r="B22" s="11" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="10">
         <v>1919113</v>
       </c>
-      <c r="D22" s="9"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="10">
         <v>1919114</v>
       </c>
-      <c r="D23" s="9"/>
+      <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="10">
         <v>1919115</v>
       </c>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:4">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16" t="s">
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" s="1" customFormat="1">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="15">
         <v>1919116</v>
       </c>
-      <c r="D25" s="18"/>
+      <c r="D25" s="16"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="9"/>
-      <c r="B26" s="19" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="10">
         <v>1919117</v>
       </c>
-      <c r="D26" s="9"/>
+      <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="13"/>
-      <c r="B27" s="19" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="10">
         <v>1919118</v>
       </c>
-      <c r="D27" s="9"/>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="13"/>
-      <c r="B28" s="19" t="s">
+      <c r="A28" s="11"/>
+      <c r="B28" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="10">
         <v>1919119</v>
       </c>
-      <c r="D28" s="9"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="13"/>
-      <c r="B29" s="19" t="s">
+      <c r="A29" s="11"/>
+      <c r="B29" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="10">
         <v>1919120</v>
       </c>
-      <c r="D29" s="9"/>
+      <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="13"/>
-      <c r="B30" s="19" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="10">
         <v>1919121</v>
       </c>
-      <c r="D30" s="9"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13"/>
-      <c r="B31" s="19" t="s">
+      <c r="A31" s="11"/>
+      <c r="B31" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="10">
         <v>1919122</v>
       </c>
-      <c r="D31" s="9"/>
+      <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="13"/>
-      <c r="B32" s="19" t="s">
+      <c r="A32" s="11"/>
+      <c r="B32" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="10">
         <v>1919123</v>
       </c>
-      <c r="D32" s="9"/>
+      <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="13"/>
-      <c r="B33" s="19" t="s">
+      <c r="A33" s="11"/>
+      <c r="B33" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="10">
         <v>1919124</v>
       </c>
-      <c r="D33" s="9"/>
+      <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="13"/>
-      <c r="B34" s="19" t="s">
+      <c r="A34" s="11"/>
+      <c r="B34" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="10">
         <v>1919125</v>
       </c>
-      <c r="D34" s="9"/>
+      <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="13"/>
-      <c r="B35" s="19" t="s">
+      <c r="A35" s="11"/>
+      <c r="B35" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="10">
         <v>1919126</v>
       </c>
-      <c r="D35" s="9"/>
+      <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="13"/>
-      <c r="B36" s="19" t="s">
+      <c r="A36" s="11"/>
+      <c r="B36" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="10">
         <v>1919127</v>
       </c>
-      <c r="D36" s="9"/>
+      <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="13"/>
-      <c r="B37" s="19" t="s">
+      <c r="A37" s="11"/>
+      <c r="B37" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="10">
         <v>1919128</v>
       </c>
-      <c r="D37" s="9"/>
+      <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="20"/>
-      <c r="B38" s="19" t="s">
+      <c r="A38" s="18"/>
+      <c r="B38" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="10">
         <v>1919129</v>
       </c>
-      <c r="D38" s="21"/>
+      <c r="D38" s="19"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="20"/>
-      <c r="B39" s="19" t="s">
+      <c r="A39" s="18"/>
+      <c r="B39" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="10">
         <v>1919130</v>
       </c>
-      <c r="D39" s="21"/>
+      <c r="D39" s="19"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="20"/>
-      <c r="B40" s="19" t="s">
+      <c r="A40" s="18"/>
+      <c r="B40" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="10">
         <v>1919131</v>
       </c>
-      <c r="D40" s="21"/>
+      <c r="D40" s="19"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="20"/>
-      <c r="B41" s="19" t="s">
+      <c r="A41" s="18"/>
+      <c r="B41" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="10">
         <v>1919132</v>
       </c>
-      <c r="D41" s="21"/>
+      <c r="D41" s="19"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="20"/>
-      <c r="B42" s="19" t="s">
+      <c r="A42" s="18"/>
+      <c r="B42" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="10">
         <v>1919133</v>
       </c>
-      <c r="D42" s="21"/>
+      <c r="D42" s="19"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="20"/>
-      <c r="B43" s="19" t="s">
+      <c r="A43" s="18"/>
+      <c r="B43" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="10">
         <v>1919134</v>
       </c>
-      <c r="D43" s="21"/>
+      <c r="D43" s="19"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="20"/>
-      <c r="B44" s="19" t="s">
+      <c r="A44" s="18"/>
+      <c r="B44" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="10">
         <v>1919135</v>
       </c>
-      <c r="D44" s="21"/>
+      <c r="D44" s="19"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="20"/>
-      <c r="B45" s="19" t="s">
+      <c r="A45" s="18"/>
+      <c r="B45" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="10">
         <v>1919136</v>
       </c>
-      <c r="D45" s="21"/>
+      <c r="D45" s="19"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="20"/>
-      <c r="B46" s="19" t="s">
+      <c r="A46" s="18"/>
+      <c r="B46" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="12">
+      <c r="C46" s="10">
         <v>1919137</v>
       </c>
-      <c r="D46" s="21"/>
+      <c r="D46" s="19"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="20"/>
-      <c r="B47" s="19" t="s">
+      <c r="A47" s="18"/>
+      <c r="B47" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="10">
         <v>1919138</v>
       </c>
-      <c r="D47" s="21"/>
+      <c r="D47" s="19"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="20"/>
-      <c r="B48" s="19" t="s">
+      <c r="A48" s="18"/>
+      <c r="B48" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="10">
         <v>1919139</v>
       </c>
-      <c r="D48" s="21"/>
+      <c r="D48" s="19"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="20"/>
-      <c r="B49" s="19" t="s">
+      <c r="A49" s="18"/>
+      <c r="B49" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="10">
         <v>1919140</v>
       </c>
-      <c r="D49" s="21"/>
+      <c r="D49" s="19"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="20"/>
-      <c r="B50" s="19" t="s">
+      <c r="A50" s="18"/>
+      <c r="B50" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="12">
+      <c r="C50" s="10">
         <v>1919141</v>
       </c>
-      <c r="D50" s="21"/>
+      <c r="D50" s="19"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="20"/>
-      <c r="B51" s="19" t="s">
+      <c r="A51" s="18"/>
+      <c r="B51" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C51" s="10">
         <v>1919142</v>
       </c>
-      <c r="D51" s="21"/>
+      <c r="D51" s="19"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="20"/>
-      <c r="B52" s="19" t="s">
+      <c r="A52" s="18"/>
+      <c r="B52" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="10">
         <v>1919143</v>
       </c>
-      <c r="D52" s="21"/>
+      <c r="D52" s="19"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="20"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="23">
+      <c r="A54" s="21">
         <v>1</v>
       </c>
-      <c r="B54" s="24" t="s">
+      <c r="B54" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C54" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D54" s="24"/>
+      <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="23">
+      <c r="A55" s="21">
         <v>2</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="26" t="s">
+      <c r="C55" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D55" s="24"/>
+      <c r="D55" s="22"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="23">
+      <c r="A56" s="21">
         <v>3</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C56" s="26" t="s">
+      <c r="C56" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D56" s="26"/>
+      <c r="D56" s="24"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="23">
+      <c r="A57" s="21">
         <v>4</v>
       </c>
-      <c r="B57" s="25" t="s">
+      <c r="B57" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="26" t="s">
+      <c r="C57" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D57" s="26"/>
+      <c r="D57" s="24"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="23">
+      <c r="A58" s="21">
         <v>5</v>
       </c>
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="C58" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D58" s="26"/>
+      <c r="D58" s="24"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="23">
+      <c r="A59" s="21">
         <v>6</v>
       </c>
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="C59" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D59" s="26"/>
+      <c r="D59" s="24"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="B60" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60">
+        <v>1919217</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="B61" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61">
+        <v>1919218</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:D4"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>